--- a/results_tables/llm_benchmarks_all_results.xlsx
+++ b/results_tables/llm_benchmarks_all_results.xlsx
@@ -695,7 +695,7 @@
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Reasoning &amp; Math_mean</t>
+          <t>Reasoning &amp; Math Mean Score</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Commonsense &amp; NLI_mean</t>
+          <t>Commonsense &amp; NLI Mean Score</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>Knowledge &amp; Reading_mean</t>
+          <t>Knowledge &amp; Reading Mean Score</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>overall_mean</t>
+          <t>Mean Score</t>
         </is>
       </c>
     </row>
@@ -898,25 +898,25 @@
         <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.6265516914510217</v>
+        <v>0.6266</v>
       </c>
       <c r="BA2" t="n">
         <v>1</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.7737343989912002</v>
+        <v>0.7737000000000001</v>
       </c>
       <c r="BC2" t="n">
         <v>3</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.3790558995729461</v>
+        <v>0.3791</v>
       </c>
       <c r="BE2" t="n">
         <v>10</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.6038169015266615</v>
+        <v>0.6038</v>
       </c>
     </row>
     <row r="3">
@@ -1088,25 +1088,25 @@
         <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.586005454382166</v>
+        <v>0.586</v>
       </c>
       <c r="BA3" t="n">
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.780735026655211</v>
+        <v>0.7806999999999999</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.3925650190131387</v>
+        <v>0.3926</v>
       </c>
       <c r="BE3" t="n">
         <v>7</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.5961286740670235</v>
+        <v>0.5961</v>
       </c>
     </row>
     <row r="4">
@@ -1278,25 +1278,25 @@
         <v>3</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.5504682367571756</v>
+        <v>0.5505</v>
       </c>
       <c r="BA4" t="n">
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.7725906691878042</v>
+        <v>0.7726</v>
       </c>
       <c r="BC4" t="n">
         <v>5</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.4135523669653634</v>
+        <v>0.4136</v>
       </c>
       <c r="BE4" t="n">
         <v>2</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.5871363271703519</v>
+        <v>0.5871</v>
       </c>
     </row>
     <row r="5">
@@ -1468,25 +1468,25 @@
         <v>18</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.62139579566402</v>
+        <v>0.6214</v>
       </c>
       <c r="BA5" t="n">
         <v>2</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.7468366094591429</v>
+        <v>0.7468</v>
       </c>
       <c r="BC5" t="n">
         <v>8</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.3566318664662381</v>
+        <v>0.3566</v>
       </c>
       <c r="BE5" t="n">
         <v>14</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.5858709017329785</v>
+        <v>0.5859</v>
       </c>
     </row>
     <row r="6">
@@ -1658,25 +1658,25 @@
         <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.5541434325283124</v>
+        <v>0.5541</v>
       </c>
       <c r="BA6" t="n">
         <v>5</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.7729556882451636</v>
+        <v>0.773</v>
       </c>
       <c r="BC6" t="n">
         <v>4</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.3810158869171752</v>
+        <v>0.381</v>
       </c>
       <c r="BE6" t="n">
         <v>9</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.5787894583458693</v>
+        <v>0.5788</v>
       </c>
     </row>
     <row r="7">
@@ -1848,25 +1848,25 @@
         <v>35</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.5488230455075348</v>
+        <v>0.5488</v>
       </c>
       <c r="BA7" t="n">
         <v>7</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.7941227969231331</v>
+        <v>0.7941</v>
       </c>
       <c r="BC7" t="n">
         <v>1</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.3580932046405649</v>
+        <v>0.3581</v>
       </c>
       <c r="BE7" t="n">
         <v>13</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.5774590062429031</v>
+        <v>0.5775</v>
       </c>
     </row>
     <row r="8">
@@ -2038,25 +2038,25 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.5205548856872506</v>
+        <v>0.5206</v>
       </c>
       <c r="BA8" t="n">
         <v>16</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.726594749142833</v>
+        <v>0.7266</v>
       </c>
       <c r="BC8" t="n">
         <v>15</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.4369074727973701</v>
+        <v>0.4369</v>
       </c>
       <c r="BE8" t="n">
         <v>1</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.5675746140297402</v>
+        <v>0.5676</v>
       </c>
     </row>
     <row r="9">
@@ -2228,25 +2228,25 @@
         <v>12</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.5245427490191436</v>
+        <v>0.5245</v>
       </c>
       <c r="BA9" t="n">
         <v>15</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.7563697075567422</v>
+        <v>0.7564</v>
       </c>
       <c r="BC9" t="n">
         <v>7</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.3963086705867251</v>
+        <v>0.3963</v>
       </c>
       <c r="BE9" t="n">
         <v>6</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.5672119609775775</v>
+        <v>0.5672</v>
       </c>
     </row>
     <row r="10">
@@ -2418,25 +2418,25 @@
         <v>7</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.5366203256275918</v>
+        <v>0.5366</v>
       </c>
       <c r="BA10" t="n">
         <v>12</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.7248715065529306</v>
+        <v>0.7249</v>
       </c>
       <c r="BC10" t="n">
         <v>17</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.4126508178659515</v>
+        <v>0.4127</v>
       </c>
       <c r="BE10" t="n">
         <v>3</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.5653173866229683</v>
+        <v>0.5653</v>
       </c>
     </row>
     <row r="11">
@@ -2608,25 +2608,25 @@
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.5398866528298641</v>
+        <v>0.5399</v>
       </c>
       <c r="BA11" t="n">
         <v>9</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.7690554317484272</v>
+        <v>0.7691</v>
       </c>
       <c r="BC11" t="n">
         <v>6</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.3466623962328514</v>
+        <v>0.3467</v>
       </c>
       <c r="BE11" t="n">
         <v>15</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.5621284484722574</v>
+        <v>0.5621</v>
       </c>
     </row>
     <row r="12">
@@ -2798,25 +2798,25 @@
         <v>5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.5445696637567174</v>
+        <v>0.5446</v>
       </c>
       <c r="BA12" t="n">
         <v>8</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.7327756170307486</v>
+        <v>0.7328</v>
       </c>
       <c r="BC12" t="n">
         <v>12</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.3683018493788807</v>
+        <v>0.3683</v>
       </c>
       <c r="BE12" t="n">
         <v>12</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.5575614030892774</v>
+        <v>0.5576</v>
       </c>
     </row>
     <row r="13">
@@ -2988,25 +2988,25 @@
         <v>8</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.5286047056008708</v>
+        <v>0.5286</v>
       </c>
       <c r="BA13" t="n">
         <v>13</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.7146756187010904</v>
+        <v>0.7147</v>
       </c>
       <c r="BC13" t="n">
         <v>22</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.3922624143269275</v>
+        <v>0.3923</v>
       </c>
       <c r="BE13" t="n">
         <v>8</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.5528268378037648</v>
+        <v>0.5528</v>
       </c>
     </row>
     <row r="14">
@@ -3178,25 +3178,25 @@
         <v>26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.5712071946801058</v>
+        <v>0.5712</v>
       </c>
       <c r="BA14" t="n">
         <v>4</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.7265871277750447</v>
+        <v>0.7266</v>
       </c>
       <c r="BC14" t="n">
         <v>16</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.322630983066203</v>
+        <v>0.3226</v>
       </c>
       <c r="BE14" t="n">
         <v>21</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.5510173077791636</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="15">
@@ -3368,25 +3368,25 @@
         <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.5183787519251893</v>
+        <v>0.5184</v>
       </c>
       <c r="BA15" t="n">
         <v>17</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.7284415242921881</v>
+        <v>0.7284</v>
       </c>
       <c r="BC15" t="n">
         <v>13</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.3718845789920238</v>
+        <v>0.3719</v>
       </c>
       <c r="BE15" t="n">
         <v>11</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.5479524703736892</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="16">
@@ -3558,25 +3558,25 @@
         <v>2</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.470393897942926</v>
+        <v>0.4704</v>
       </c>
       <c r="BA16" t="n">
         <v>22</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.7403140168100134</v>
+        <v>0.7403</v>
       </c>
       <c r="BC16" t="n">
         <v>9</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.4045063248223192</v>
+        <v>0.4045</v>
       </c>
       <c r="BE16" t="n">
         <v>5</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.5450996676102245</v>
+        <v>0.5451</v>
       </c>
     </row>
     <row r="17">
@@ -3748,25 +3748,25 @@
         <v>19</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.5373506536077904</v>
+        <v>0.5374</v>
       </c>
       <c r="BA17" t="n">
         <v>11</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.7167191322706975</v>
+        <v>0.7167</v>
       </c>
       <c r="BC17" t="n">
         <v>19</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.326122067898636</v>
+        <v>0.3261</v>
       </c>
       <c r="BE17" t="n">
         <v>20</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.5367610454270617</v>
+        <v>0.5368000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3938,25 +3938,25 @@
         <v>16</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.5006341168254121</v>
+        <v>0.5006</v>
       </c>
       <c r="BA18" t="n">
         <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.7373886153513018</v>
+        <v>0.7374000000000001</v>
       </c>
       <c r="BC18" t="n">
         <v>10</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.3339038775670454</v>
+        <v>0.3339</v>
       </c>
       <c r="BE18" t="n">
         <v>19</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.5334791195319635</v>
+        <v>0.5335</v>
       </c>
     </row>
     <row r="19">
@@ -4128,25 +4128,25 @@
         <v>10</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.449469333353509</v>
+        <v>0.4495</v>
       </c>
       <c r="BA19" t="n">
         <v>24</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.7198926187386444</v>
+        <v>0.7199</v>
       </c>
       <c r="BC19" t="n">
         <v>18</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.4062806317246313</v>
+        <v>0.4063</v>
       </c>
       <c r="BE19" t="n">
         <v>4</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.5311608727496431</v>
+        <v>0.5312</v>
       </c>
     </row>
     <row r="20">
@@ -4318,25 +4318,25 @@
         <v>39</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.5285029766216406</v>
+        <v>0.5285</v>
       </c>
       <c r="BA20" t="n">
         <v>14</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.7273838082479528</v>
+        <v>0.7274</v>
       </c>
       <c r="BC20" t="n">
         <v>14</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.2919067622624706</v>
+        <v>0.2919</v>
       </c>
       <c r="BE20" t="n">
         <v>24</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.5271324033830989</v>
+        <v>0.5271</v>
       </c>
     </row>
     <row r="21">
@@ -4508,25 +4508,25 @@
         <v>36</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.5386782808572923</v>
+        <v>0.5387</v>
       </c>
       <c r="BA21" t="n">
         <v>10</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.7094151097994902</v>
+        <v>0.7094</v>
       </c>
       <c r="BC21" t="n">
         <v>23</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.2834019285877628</v>
+        <v>0.2834</v>
       </c>
       <c r="BE21" t="n">
         <v>28</v>
       </c>
       <c r="BF21" t="n">
-        <v>0.5218532653062027</v>
+        <v>0.5219</v>
       </c>
     </row>
     <row r="22">
@@ -4698,25 +4698,25 @@
         <v>14</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.4687998272813316</v>
+        <v>0.4688</v>
       </c>
       <c r="BA22" t="n">
         <v>23</v>
       </c>
       <c r="BB22" t="n">
-        <v>0.6787590169787985</v>
+        <v>0.6788</v>
       </c>
       <c r="BC22" t="n">
         <v>30</v>
       </c>
       <c r="BD22" t="n">
-        <v>0.3438274094929243</v>
+        <v>0.3438</v>
       </c>
       <c r="BE22" t="n">
         <v>16</v>
       </c>
       <c r="BF22" t="n">
-        <v>0.5047938183389229</v>
+        <v>0.5048</v>
       </c>
     </row>
     <row r="23">
@@ -4888,25 +4888,25 @@
         <v>21</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.3823408776749263</v>
+        <v>0.3823</v>
       </c>
       <c r="BA23" t="n">
         <v>32</v>
       </c>
       <c r="BB23" t="n">
-        <v>0.7367008452650045</v>
+        <v>0.7367</v>
       </c>
       <c r="BC23" t="n">
         <v>11</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.3406352009404532</v>
+        <v>0.3406</v>
       </c>
       <c r="BE23" t="n">
         <v>17</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.4938551633111117</v>
+        <v>0.4939</v>
       </c>
     </row>
     <row r="24">
@@ -5078,25 +5078,25 @@
         <v>27</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.501015403042915</v>
+        <v>0.501</v>
       </c>
       <c r="BA24" t="n">
         <v>18</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.6586949292256262</v>
+        <v>0.6587</v>
       </c>
       <c r="BC24" t="n">
         <v>32</v>
       </c>
       <c r="BD24" t="n">
-        <v>0.2827263600143676</v>
+        <v>0.2827</v>
       </c>
       <c r="BE24" t="n">
         <v>29</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.4907165242982997</v>
+        <v>0.4907</v>
       </c>
     </row>
     <row r="25">
@@ -5268,25 +5268,25 @@
         <v>20</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0.4243696858063927</v>
+        <v>0.4244</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>0.7090449792136494</v>
+        <v>0.709</v>
       </c>
       <c r="BC25" t="n">
         <v>24</v>
       </c>
       <c r="BD25" t="n">
-        <v>0.30070560674162</v>
+        <v>0.3007</v>
       </c>
       <c r="BE25" t="n">
         <v>23</v>
       </c>
       <c r="BF25" t="n">
-        <v>0.4869068147795008</v>
+        <v>0.4869</v>
       </c>
     </row>
     <row r="26">
@@ -5458,25 +5458,25 @@
         <v>28</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.4469368991170229</v>
+        <v>0.4469</v>
       </c>
       <c r="BA26" t="n">
         <v>26</v>
       </c>
       <c r="BB26" t="n">
-        <v>0.6927548491249605</v>
+        <v>0.6928</v>
       </c>
       <c r="BC26" t="n">
         <v>27</v>
       </c>
       <c r="BD26" t="n">
-        <v>0.2804631454779304</v>
+        <v>0.2805</v>
       </c>
       <c r="BE26" t="n">
         <v>30</v>
       </c>
       <c r="BF26" t="n">
-        <v>0.4830310555280733</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="27">
@@ -5648,25 +5648,25 @@
         <v>1</v>
       </c>
       <c r="AZ27" t="n">
-        <v>0.3719425806564936</v>
+        <v>0.3719</v>
       </c>
       <c r="BA27" t="n">
         <v>33</v>
       </c>
       <c r="BB27" t="n">
-        <v>0.7157173514058917</v>
+        <v>0.7157</v>
       </c>
       <c r="BC27" t="n">
         <v>20</v>
       </c>
       <c r="BD27" t="n">
-        <v>0.3374456642311616</v>
+        <v>0.3374</v>
       </c>
       <c r="BE27" t="n">
         <v>18</v>
       </c>
       <c r="BF27" t="n">
-        <v>0.4819146754911833</v>
+        <v>0.4819</v>
       </c>
     </row>
     <row r="28">
@@ -5838,25 +5838,25 @@
         <v>24</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0.4143104887143975</v>
+        <v>0.4143</v>
       </c>
       <c r="BA28" t="n">
         <v>28</v>
       </c>
       <c r="BB28" t="n">
-        <v>0.7153113782827196</v>
+        <v>0.7153</v>
       </c>
       <c r="BC28" t="n">
         <v>21</v>
       </c>
       <c r="BD28" t="n">
-        <v>0.2863659652303279</v>
+        <v>0.2864</v>
       </c>
       <c r="BE28" t="n">
         <v>26</v>
       </c>
       <c r="BF28" t="n">
-        <v>0.4812774430180894</v>
+        <v>0.4813</v>
       </c>
     </row>
     <row r="29">
@@ -6028,25 +6028,25 @@
         <v>34</v>
       </c>
       <c r="AZ29" t="n">
-        <v>0.4840914440728908</v>
+        <v>0.4841</v>
       </c>
       <c r="BA29" t="n">
         <v>21</v>
       </c>
       <c r="BB29" t="n">
-        <v>0.6422012069909914</v>
+        <v>0.6422</v>
       </c>
       <c r="BC29" t="n">
         <v>34</v>
       </c>
       <c r="BD29" t="n">
-        <v>0.2340168480293069</v>
+        <v>0.234</v>
       </c>
       <c r="BE29" t="n">
         <v>35</v>
       </c>
       <c r="BF29" t="n">
-        <v>0.4644074822811509</v>
+        <v>0.4644</v>
       </c>
     </row>
     <row r="30">
@@ -6218,25 +6218,25 @@
         <v>22</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0.3874259084715157</v>
+        <v>0.3874</v>
       </c>
       <c r="BA30" t="n">
         <v>31</v>
       </c>
       <c r="BB30" t="n">
-        <v>0.680271195691814</v>
+        <v>0.6803</v>
       </c>
       <c r="BC30" t="n">
         <v>29</v>
       </c>
       <c r="BD30" t="n">
-        <v>0.2902709464856951</v>
+        <v>0.2903</v>
       </c>
       <c r="BE30" t="n">
         <v>25</v>
       </c>
       <c r="BF30" t="n">
-        <v>0.460775270402874</v>
+        <v>0.4608</v>
       </c>
     </row>
     <row r="31">
@@ -6408,25 +6408,25 @@
         <v>32</v>
       </c>
       <c r="AZ31" t="n">
-        <v>0.44930430639861</v>
+        <v>0.4493</v>
       </c>
       <c r="BA31" t="n">
         <v>25</v>
       </c>
       <c r="BB31" t="n">
-        <v>0.6442306313345494</v>
+        <v>0.6442</v>
       </c>
       <c r="BC31" t="n">
         <v>33</v>
       </c>
       <c r="BD31" t="n">
-        <v>0.2566594594390122</v>
+        <v>0.2567</v>
       </c>
       <c r="BE31" t="n">
         <v>34</v>
       </c>
       <c r="BF31" t="n">
-        <v>0.4597350660383095</v>
+        <v>0.4597</v>
       </c>
     </row>
     <row r="32">
@@ -6598,25 +6598,25 @@
         <v>40</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0.4997294975680994</v>
+        <v>0.4997</v>
       </c>
       <c r="BA32" t="n">
         <v>20</v>
       </c>
       <c r="BB32" t="n">
-        <v>0.6183659478307356</v>
+        <v>0.6183999999999999</v>
       </c>
       <c r="BC32" t="n">
         <v>37</v>
       </c>
       <c r="BD32" t="n">
-        <v>0.2276075310773338</v>
+        <v>0.2276</v>
       </c>
       <c r="BE32" t="n">
         <v>36</v>
       </c>
       <c r="BF32" t="n">
-        <v>0.4596156652127924</v>
+        <v>0.4596</v>
       </c>
     </row>
     <row r="33">
@@ -6788,25 +6788,25 @@
         <v>29</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0.3674011793203588</v>
+        <v>0.3674</v>
       </c>
       <c r="BA33" t="n">
         <v>35</v>
       </c>
       <c r="BB33" t="n">
-        <v>0.6978322790611438</v>
+        <v>0.6978</v>
       </c>
       <c r="BC33" t="n">
         <v>25</v>
       </c>
       <c r="BD33" t="n">
-        <v>0.2656296727366462</v>
+        <v>0.2656</v>
       </c>
       <c r="BE33" t="n">
         <v>32</v>
       </c>
       <c r="BF33" t="n">
-        <v>0.4525206122545198</v>
+        <v>0.4525</v>
       </c>
     </row>
     <row r="34">
@@ -6978,25 +6978,25 @@
         <v>6</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0.3360517812226731</v>
+        <v>0.3361</v>
       </c>
       <c r="BA34" t="n">
         <v>39</v>
       </c>
       <c r="BB34" t="n">
-        <v>0.6955579901378091</v>
+        <v>0.6956</v>
       </c>
       <c r="BC34" t="n">
         <v>26</v>
       </c>
       <c r="BD34" t="n">
-        <v>0.3017868314368922</v>
+        <v>0.3018</v>
       </c>
       <c r="BE34" t="n">
         <v>22</v>
       </c>
       <c r="BF34" t="n">
-        <v>0.4515994694072364</v>
+        <v>0.4516</v>
       </c>
     </row>
     <row r="35">
@@ -7168,25 +7168,25 @@
         <v>9</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0.3377304558800266</v>
+        <v>0.3377</v>
       </c>
       <c r="BA35" t="n">
         <v>38</v>
       </c>
       <c r="BB35" t="n">
-        <v>0.6886293048377231</v>
+        <v>0.6886</v>
       </c>
       <c r="BC35" t="n">
         <v>28</v>
       </c>
       <c r="BD35" t="n">
-        <v>0.2863546266855681</v>
+        <v>0.2864</v>
       </c>
       <c r="BE35" t="n">
         <v>27</v>
       </c>
       <c r="BF35" t="n">
-        <v>0.4451323042568829</v>
+        <v>0.4451</v>
       </c>
     </row>
     <row r="36">
@@ -7358,25 +7358,25 @@
         <v>31</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0.370180761915493</v>
+        <v>0.3702</v>
       </c>
       <c r="BA36" t="n">
         <v>34</v>
       </c>
       <c r="BB36" t="n">
-        <v>0.671139523574397</v>
+        <v>0.6711</v>
       </c>
       <c r="BC36" t="n">
         <v>31</v>
       </c>
       <c r="BD36" t="n">
-        <v>0.2580891606184399</v>
+        <v>0.2581</v>
       </c>
       <c r="BE36" t="n">
         <v>33</v>
       </c>
       <c r="BF36" t="n">
-        <v>0.4418888481069935</v>
+        <v>0.4419</v>
       </c>
     </row>
     <row r="37">
@@ -7548,25 +7548,25 @@
         <v>25</v>
       </c>
       <c r="AZ37" t="n">
-        <v>0.3450151095333398</v>
+        <v>0.345</v>
       </c>
       <c r="BA37" t="n">
         <v>37</v>
       </c>
       <c r="BB37" t="n">
-        <v>0.6263965412592933</v>
+        <v>0.6264</v>
       </c>
       <c r="BC37" t="n">
         <v>36</v>
       </c>
       <c r="BD37" t="n">
-        <v>0.2731453697266833</v>
+        <v>0.2731</v>
       </c>
       <c r="BE37" t="n">
         <v>31</v>
       </c>
       <c r="BF37" t="n">
-        <v>0.4219376886954266</v>
+        <v>0.4219</v>
       </c>
     </row>
     <row r="38">
@@ -7738,25 +7738,25 @@
         <v>30</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0.3311815466975236</v>
+        <v>0.3312</v>
       </c>
       <c r="BA38" t="n">
         <v>40</v>
       </c>
       <c r="BB38" t="n">
-        <v>0.6267000124673</v>
+        <v>0.6267</v>
       </c>
       <c r="BC38" t="n">
         <v>35</v>
       </c>
       <c r="BD38" t="n">
-        <v>0.2201651097265757</v>
+        <v>0.2202</v>
       </c>
       <c r="BE38" t="n">
         <v>38</v>
       </c>
       <c r="BF38" t="n">
-        <v>0.4013080786256609</v>
+        <v>0.4013</v>
       </c>
     </row>
     <row r="39">
@@ -7928,25 +7928,25 @@
         <v>38</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0.4009221564042992</v>
+        <v>0.4009</v>
       </c>
       <c r="BA39" t="n">
         <v>30</v>
       </c>
       <c r="BB39" t="n">
-        <v>0.57033648107658</v>
+        <v>0.5703</v>
       </c>
       <c r="BC39" t="n">
         <v>39</v>
       </c>
       <c r="BD39" t="n">
-        <v>0.1953695514737226</v>
+        <v>0.1954</v>
       </c>
       <c r="BE39" t="n">
         <v>41</v>
       </c>
       <c r="BF39" t="n">
-        <v>0.3985513885604245</v>
+        <v>0.3986</v>
       </c>
     </row>
     <row r="40">
@@ -8118,25 +8118,25 @@
         <v>41</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0.4084550173630595</v>
+        <v>0.4085</v>
       </c>
       <c r="BA40" t="n">
         <v>29</v>
       </c>
       <c r="BB40" t="n">
-        <v>0.5180967040412194</v>
+        <v>0.5181</v>
       </c>
       <c r="BC40" t="n">
         <v>41</v>
       </c>
       <c r="BD40" t="n">
-        <v>0.198272465924252</v>
+        <v>0.1983</v>
       </c>
       <c r="BE40" t="n">
         <v>40</v>
       </c>
       <c r="BF40" t="n">
-        <v>0.3837748422687732</v>
+        <v>0.3838</v>
       </c>
     </row>
     <row r="41">
@@ -8308,25 +8308,25 @@
         <v>37</v>
       </c>
       <c r="AZ41" t="n">
-        <v>0.3493823165071827</v>
+        <v>0.3494</v>
       </c>
       <c r="BA41" t="n">
         <v>36</v>
       </c>
       <c r="BB41" t="n">
-        <v>0.5695733507454069</v>
+        <v>0.5696</v>
       </c>
       <c r="BC41" t="n">
         <v>40</v>
       </c>
       <c r="BD41" t="n">
-        <v>0.199977558128233</v>
+        <v>0.2</v>
       </c>
       <c r="BE41" t="n">
         <v>39</v>
       </c>
       <c r="BF41" t="n">
-        <v>0.3816277509768763</v>
+        <v>0.3816</v>
       </c>
     </row>
     <row r="42">
@@ -8498,25 +8498,25 @@
         <v>33</v>
       </c>
       <c r="AZ42" t="n">
-        <v>0.291416147853357</v>
+        <v>0.2914</v>
       </c>
       <c r="BA42" t="n">
         <v>41</v>
       </c>
       <c r="BB42" t="n">
-        <v>0.6038857605268693</v>
+        <v>0.6039</v>
       </c>
       <c r="BC42" t="n">
         <v>38</v>
       </c>
       <c r="BD42" t="n">
-        <v>0.221834466252853</v>
+        <v>0.2218</v>
       </c>
       <c r="BE42" t="n">
         <v>37</v>
       </c>
       <c r="BF42" t="n">
-        <v>0.379906007808935</v>
+        <v>0.3799</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8559,6 +8559,11 @@
           <t>Overall Rank</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mean Score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8579,6 +8584,9 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.6038</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8599,6 +8607,9 @@
       <c r="D3" t="n">
         <v>2</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.5961</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8619,6 +8630,9 @@
       <c r="D4" t="n">
         <v>3</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.5871</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8639,6 +8653,9 @@
       <c r="D5" t="n">
         <v>4</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.5859</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8659,6 +8676,9 @@
       <c r="D6" t="n">
         <v>5</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.5788</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8679,6 +8699,9 @@
       <c r="D7" t="n">
         <v>6</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.5775</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8699,6 +8722,9 @@
       <c r="D8" t="n">
         <v>7</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.5676</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8719,6 +8745,9 @@
       <c r="D9" t="n">
         <v>8</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.5672</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8739,6 +8768,9 @@
       <c r="D10" t="n">
         <v>9</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.5653</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8759,6 +8791,9 @@
       <c r="D11" t="n">
         <v>10</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.5621</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8779,6 +8814,9 @@
       <c r="D12" t="n">
         <v>11</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.5576</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8799,6 +8837,9 @@
       <c r="D13" t="n">
         <v>12</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.5528</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8819,6 +8860,9 @@
       <c r="D14" t="n">
         <v>13</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.551</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8839,6 +8883,9 @@
       <c r="D15" t="n">
         <v>14</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.548</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8859,6 +8906,9 @@
       <c r="D16" t="n">
         <v>15</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.5451</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8879,6 +8929,9 @@
       <c r="D17" t="n">
         <v>16</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.5368000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8899,6 +8952,9 @@
       <c r="D18" t="n">
         <v>17</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.5335</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8919,6 +8975,9 @@
       <c r="D19" t="n">
         <v>18</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.5312</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8939,6 +8998,9 @@
       <c r="D20" t="n">
         <v>19</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.5271</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8959,6 +9021,9 @@
       <c r="D21" t="n">
         <v>20</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.5219</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8979,6 +9044,9 @@
       <c r="D22" t="n">
         <v>21</v>
       </c>
+      <c r="E22" t="n">
+        <v>0.5048</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8999,6 +9067,9 @@
       <c r="D23" t="n">
         <v>22</v>
       </c>
+      <c r="E23" t="n">
+        <v>0.4939</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9019,6 +9090,9 @@
       <c r="D24" t="n">
         <v>23</v>
       </c>
+      <c r="E24" t="n">
+        <v>0.4907</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9039,6 +9113,9 @@
       <c r="D25" t="n">
         <v>24</v>
       </c>
+      <c r="E25" t="n">
+        <v>0.4869</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9059,6 +9136,9 @@
       <c r="D26" t="n">
         <v>25</v>
       </c>
+      <c r="E26" t="n">
+        <v>0.483</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9079,6 +9159,9 @@
       <c r="D27" t="n">
         <v>26</v>
       </c>
+      <c r="E27" t="n">
+        <v>0.4819</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9099,6 +9182,9 @@
       <c r="D28" t="n">
         <v>27</v>
       </c>
+      <c r="E28" t="n">
+        <v>0.4813</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9119,6 +9205,9 @@
       <c r="D29" t="n">
         <v>28</v>
       </c>
+      <c r="E29" t="n">
+        <v>0.4644</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9139,6 +9228,9 @@
       <c r="D30" t="n">
         <v>29</v>
       </c>
+      <c r="E30" t="n">
+        <v>0.4608</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9159,6 +9251,9 @@
       <c r="D31" t="n">
         <v>30</v>
       </c>
+      <c r="E31" t="n">
+        <v>0.4597</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9179,6 +9274,9 @@
       <c r="D32" t="n">
         <v>31</v>
       </c>
+      <c r="E32" t="n">
+        <v>0.4596</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9199,6 +9297,9 @@
       <c r="D33" t="n">
         <v>32</v>
       </c>
+      <c r="E33" t="n">
+        <v>0.4525</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9219,6 +9320,9 @@
       <c r="D34" t="n">
         <v>33</v>
       </c>
+      <c r="E34" t="n">
+        <v>0.4516</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9239,6 +9343,9 @@
       <c r="D35" t="n">
         <v>34</v>
       </c>
+      <c r="E35" t="n">
+        <v>0.4451</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9259,6 +9366,9 @@
       <c r="D36" t="n">
         <v>35</v>
       </c>
+      <c r="E36" t="n">
+        <v>0.4419</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9279,6 +9389,9 @@
       <c r="D37" t="n">
         <v>36</v>
       </c>
+      <c r="E37" t="n">
+        <v>0.4219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9299,6 +9412,9 @@
       <c r="D38" t="n">
         <v>37</v>
       </c>
+      <c r="E38" t="n">
+        <v>0.4013</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9319,6 +9435,9 @@
       <c r="D39" t="n">
         <v>38</v>
       </c>
+      <c r="E39" t="n">
+        <v>0.3986</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9339,6 +9458,9 @@
       <c r="D40" t="n">
         <v>39</v>
       </c>
+      <c r="E40" t="n">
+        <v>0.3838</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9359,6 +9481,9 @@
       <c r="D41" t="n">
         <v>40</v>
       </c>
+      <c r="E41" t="n">
+        <v>0.3816</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9378,6 +9503,9 @@
       </c>
       <c r="D42" t="n">
         <v>41</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.3799</v>
       </c>
     </row>
   </sheetData>
@@ -9391,7 +9519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9420,6 +9548,11 @@
           <t>Reasoning &amp; Math Avg. Rank</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Reasoning &amp; Math Mean Score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9440,6 +9573,9 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.6266</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9460,6 +9596,9 @@
       <c r="D3" t="n">
         <v>2</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.6214</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9480,6 +9619,9 @@
       <c r="D4" t="n">
         <v>3</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.586</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9500,6 +9642,9 @@
       <c r="D5" t="n">
         <v>4</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.5712</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9520,6 +9665,9 @@
       <c r="D6" t="n">
         <v>5</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.5541</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9540,6 +9688,9 @@
       <c r="D7" t="n">
         <v>6</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.5505</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9560,6 +9711,9 @@
       <c r="D8" t="n">
         <v>7</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.5488</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9580,6 +9734,9 @@
       <c r="D9" t="n">
         <v>8</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.5446</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9600,6 +9757,9 @@
       <c r="D10" t="n">
         <v>9</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.5399</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9620,6 +9780,9 @@
       <c r="D11" t="n">
         <v>10</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.5387</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9640,6 +9803,9 @@
       <c r="D12" t="n">
         <v>11</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.5374</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9660,6 +9826,9 @@
       <c r="D13" t="n">
         <v>12</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.5366</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9680,6 +9849,9 @@
       <c r="D14" t="n">
         <v>13</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.5286</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9700,6 +9872,9 @@
       <c r="D15" t="n">
         <v>14</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.5285</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9720,6 +9895,9 @@
       <c r="D16" t="n">
         <v>15</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.5245</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9740,6 +9918,9 @@
       <c r="D17" t="n">
         <v>16</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.5206</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9760,6 +9941,9 @@
       <c r="D18" t="n">
         <v>17</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.5184</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9780,6 +9964,9 @@
       <c r="D19" t="n">
         <v>18</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.501</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9800,6 +9987,9 @@
       <c r="D20" t="n">
         <v>19</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.5006</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9820,6 +10010,9 @@
       <c r="D21" t="n">
         <v>20</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.4997</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9840,6 +10033,9 @@
       <c r="D22" t="n">
         <v>21</v>
       </c>
+      <c r="E22" t="n">
+        <v>0.4841</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9860,6 +10056,9 @@
       <c r="D23" t="n">
         <v>22</v>
       </c>
+      <c r="E23" t="n">
+        <v>0.4704</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9880,6 +10079,9 @@
       <c r="D24" t="n">
         <v>23</v>
       </c>
+      <c r="E24" t="n">
+        <v>0.4688</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9900,6 +10102,9 @@
       <c r="D25" t="n">
         <v>24</v>
       </c>
+      <c r="E25" t="n">
+        <v>0.4495</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9920,6 +10125,9 @@
       <c r="D26" t="n">
         <v>25</v>
       </c>
+      <c r="E26" t="n">
+        <v>0.4493</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9940,6 +10148,9 @@
       <c r="D27" t="n">
         <v>26</v>
       </c>
+      <c r="E27" t="n">
+        <v>0.4469</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9960,6 +10171,9 @@
       <c r="D28" t="n">
         <v>27</v>
       </c>
+      <c r="E28" t="n">
+        <v>0.4244</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9980,6 +10194,9 @@
       <c r="D29" t="n">
         <v>28</v>
       </c>
+      <c r="E29" t="n">
+        <v>0.4143</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10000,6 +10217,9 @@
       <c r="D30" t="n">
         <v>29</v>
       </c>
+      <c r="E30" t="n">
+        <v>0.4085</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10020,6 +10240,9 @@
       <c r="D31" t="n">
         <v>30</v>
       </c>
+      <c r="E31" t="n">
+        <v>0.4009</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10040,6 +10263,9 @@
       <c r="D32" t="n">
         <v>31</v>
       </c>
+      <c r="E32" t="n">
+        <v>0.3874</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10060,6 +10286,9 @@
       <c r="D33" t="n">
         <v>32</v>
       </c>
+      <c r="E33" t="n">
+        <v>0.3823</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10080,6 +10309,9 @@
       <c r="D34" t="n">
         <v>33</v>
       </c>
+      <c r="E34" t="n">
+        <v>0.3719</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10100,6 +10332,9 @@
       <c r="D35" t="n">
         <v>34</v>
       </c>
+      <c r="E35" t="n">
+        <v>0.3702</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10120,6 +10355,9 @@
       <c r="D36" t="n">
         <v>35</v>
       </c>
+      <c r="E36" t="n">
+        <v>0.3674</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10140,6 +10378,9 @@
       <c r="D37" t="n">
         <v>36</v>
       </c>
+      <c r="E37" t="n">
+        <v>0.3494</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10160,6 +10401,9 @@
       <c r="D38" t="n">
         <v>37</v>
       </c>
+      <c r="E38" t="n">
+        <v>0.345</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10180,6 +10424,9 @@
       <c r="D39" t="n">
         <v>38</v>
       </c>
+      <c r="E39" t="n">
+        <v>0.3377</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10200,6 +10447,9 @@
       <c r="D40" t="n">
         <v>39</v>
       </c>
+      <c r="E40" t="n">
+        <v>0.3361</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10220,6 +10470,9 @@
       <c r="D41" t="n">
         <v>40</v>
       </c>
+      <c r="E41" t="n">
+        <v>0.3312</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10239,6 +10492,9 @@
       </c>
       <c r="D42" t="n">
         <v>41</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.2914</v>
       </c>
     </row>
   </sheetData>
@@ -10252,7 +10508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10281,6 +10537,11 @@
           <t>Commonsense &amp; NLI Avg. Rank</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Commonsense &amp; NLI Mean Score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -10301,6 +10562,9 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.7941</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -10321,6 +10585,9 @@
       <c r="D3" t="n">
         <v>2</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.7806999999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -10341,6 +10608,9 @@
       <c r="D4" t="n">
         <v>3</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.7737000000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10361,6 +10631,9 @@
       <c r="D5" t="n">
         <v>4</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.773</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10381,6 +10654,9 @@
       <c r="D6" t="n">
         <v>5</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.7726</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10401,6 +10677,9 @@
       <c r="D7" t="n">
         <v>6</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.7691</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -10421,6 +10700,9 @@
       <c r="D8" t="n">
         <v>7</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.7564</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10441,6 +10723,9 @@
       <c r="D9" t="n">
         <v>8</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.7468</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10461,6 +10746,9 @@
       <c r="D10" t="n">
         <v>9</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.7403</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10481,6 +10769,9 @@
       <c r="D11" t="n">
         <v>10</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.7374000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10501,6 +10792,9 @@
       <c r="D12" t="n">
         <v>11</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.7367</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10521,6 +10815,9 @@
       <c r="D13" t="n">
         <v>12</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.7328</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10541,6 +10838,9 @@
       <c r="D14" t="n">
         <v>13</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.7284</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10561,6 +10861,9 @@
       <c r="D15" t="n">
         <v>14</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.7274</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10581,6 +10884,9 @@
       <c r="D16" t="n">
         <v>15</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.7266</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10601,6 +10907,9 @@
       <c r="D17" t="n">
         <v>16</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.7266</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10621,6 +10930,9 @@
       <c r="D18" t="n">
         <v>17</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.7249</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10641,6 +10953,9 @@
       <c r="D19" t="n">
         <v>18</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.7199</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10661,6 +10976,9 @@
       <c r="D20" t="n">
         <v>19</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.7167</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10681,6 +10999,9 @@
       <c r="D21" t="n">
         <v>20</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.7157</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10701,6 +11022,9 @@
       <c r="D22" t="n">
         <v>21</v>
       </c>
+      <c r="E22" t="n">
+        <v>0.7153</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10721,6 +11045,9 @@
       <c r="D23" t="n">
         <v>22</v>
       </c>
+      <c r="E23" t="n">
+        <v>0.7147</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10741,6 +11068,9 @@
       <c r="D24" t="n">
         <v>23</v>
       </c>
+      <c r="E24" t="n">
+        <v>0.7094</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10761,6 +11091,9 @@
       <c r="D25" t="n">
         <v>24</v>
       </c>
+      <c r="E25" t="n">
+        <v>0.709</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10781,6 +11114,9 @@
       <c r="D26" t="n">
         <v>25</v>
       </c>
+      <c r="E26" t="n">
+        <v>0.6978</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10801,6 +11137,9 @@
       <c r="D27" t="n">
         <v>26</v>
       </c>
+      <c r="E27" t="n">
+        <v>0.6956</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10821,6 +11160,9 @@
       <c r="D28" t="n">
         <v>27</v>
       </c>
+      <c r="E28" t="n">
+        <v>0.6928</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10841,6 +11183,9 @@
       <c r="D29" t="n">
         <v>28</v>
       </c>
+      <c r="E29" t="n">
+        <v>0.6886</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10861,6 +11206,9 @@
       <c r="D30" t="n">
         <v>29</v>
       </c>
+      <c r="E30" t="n">
+        <v>0.6803</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10881,6 +11229,9 @@
       <c r="D31" t="n">
         <v>30</v>
       </c>
+      <c r="E31" t="n">
+        <v>0.6788</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10901,6 +11252,9 @@
       <c r="D32" t="n">
         <v>31</v>
       </c>
+      <c r="E32" t="n">
+        <v>0.6711</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10921,6 +11275,9 @@
       <c r="D33" t="n">
         <v>32</v>
       </c>
+      <c r="E33" t="n">
+        <v>0.6587</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10941,6 +11298,9 @@
       <c r="D34" t="n">
         <v>33</v>
       </c>
+      <c r="E34" t="n">
+        <v>0.6442</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10961,6 +11321,9 @@
       <c r="D35" t="n">
         <v>34</v>
       </c>
+      <c r="E35" t="n">
+        <v>0.6422</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10981,6 +11344,9 @@
       <c r="D36" t="n">
         <v>35</v>
       </c>
+      <c r="E36" t="n">
+        <v>0.6267</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11001,6 +11367,9 @@
       <c r="D37" t="n">
         <v>36</v>
       </c>
+      <c r="E37" t="n">
+        <v>0.6264</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11021,6 +11390,9 @@
       <c r="D38" t="n">
         <v>37</v>
       </c>
+      <c r="E38" t="n">
+        <v>0.6183999999999999</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11041,6 +11413,9 @@
       <c r="D39" t="n">
         <v>38</v>
       </c>
+      <c r="E39" t="n">
+        <v>0.6039</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11061,6 +11436,9 @@
       <c r="D40" t="n">
         <v>39</v>
       </c>
+      <c r="E40" t="n">
+        <v>0.5703</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11081,6 +11459,9 @@
       <c r="D41" t="n">
         <v>40</v>
       </c>
+      <c r="E41" t="n">
+        <v>0.5696</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11100,6 +11481,9 @@
       </c>
       <c r="D42" t="n">
         <v>41</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.5181</v>
       </c>
     </row>
   </sheetData>
@@ -11113,7 +11497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11142,6 +11526,11 @@
           <t>Knowledge &amp; Reading Avg. Rank</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Knowledge &amp; Reading Mean Score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -11162,6 +11551,9 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.4369</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -11182,6 +11574,9 @@
       <c r="D3" t="n">
         <v>2</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.4136</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11202,6 +11597,9 @@
       <c r="D4" t="n">
         <v>3</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.4127</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -11222,6 +11620,9 @@
       <c r="D5" t="n">
         <v>4</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.4063</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -11242,6 +11643,9 @@
       <c r="D6" t="n">
         <v>5</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.4045</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11262,6 +11666,9 @@
       <c r="D7" t="n">
         <v>6</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.3963</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -11282,6 +11689,9 @@
       <c r="D8" t="n">
         <v>7</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.3926</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11302,6 +11712,9 @@
       <c r="D9" t="n">
         <v>8</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.3923</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -11322,6 +11735,9 @@
       <c r="D10" t="n">
         <v>9</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.381</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -11342,6 +11758,9 @@
       <c r="D11" t="n">
         <v>10</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.3791</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -11362,6 +11781,9 @@
       <c r="D12" t="n">
         <v>11</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.3719</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11382,6 +11804,9 @@
       <c r="D13" t="n">
         <v>12</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.3683</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11402,6 +11827,9 @@
       <c r="D14" t="n">
         <v>13</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.3581</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11422,6 +11850,9 @@
       <c r="D15" t="n">
         <v>14</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.3566</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11442,6 +11873,9 @@
       <c r="D16" t="n">
         <v>15</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.3467</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11462,6 +11896,9 @@
       <c r="D17" t="n">
         <v>16</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.3438</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11482,6 +11919,9 @@
       <c r="D18" t="n">
         <v>17</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.3406</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11502,6 +11942,9 @@
       <c r="D19" t="n">
         <v>18</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.3374</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11522,6 +11965,9 @@
       <c r="D20" t="n">
         <v>19</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.3339</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11542,6 +11988,9 @@
       <c r="D21" t="n">
         <v>20</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.3261</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11562,6 +12011,9 @@
       <c r="D22" t="n">
         <v>21</v>
       </c>
+      <c r="E22" t="n">
+        <v>0.3226</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11582,6 +12034,9 @@
       <c r="D23" t="n">
         <v>22</v>
       </c>
+      <c r="E23" t="n">
+        <v>0.3018</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11602,6 +12057,9 @@
       <c r="D24" t="n">
         <v>23</v>
       </c>
+      <c r="E24" t="n">
+        <v>0.3007</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11622,6 +12080,9 @@
       <c r="D25" t="n">
         <v>24</v>
       </c>
+      <c r="E25" t="n">
+        <v>0.2919</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11642,6 +12103,9 @@
       <c r="D26" t="n">
         <v>25</v>
       </c>
+      <c r="E26" t="n">
+        <v>0.2903</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11662,6 +12126,9 @@
       <c r="D27" t="n">
         <v>26</v>
       </c>
+      <c r="E27" t="n">
+        <v>0.2864</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11682,6 +12149,9 @@
       <c r="D28" t="n">
         <v>27</v>
       </c>
+      <c r="E28" t="n">
+        <v>0.2864</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11702,6 +12172,9 @@
       <c r="D29" t="n">
         <v>28</v>
       </c>
+      <c r="E29" t="n">
+        <v>0.2834</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11722,6 +12195,9 @@
       <c r="D30" t="n">
         <v>29</v>
       </c>
+      <c r="E30" t="n">
+        <v>0.2827</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11742,6 +12218,9 @@
       <c r="D31" t="n">
         <v>30</v>
       </c>
+      <c r="E31" t="n">
+        <v>0.2805</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11762,6 +12241,9 @@
       <c r="D32" t="n">
         <v>31</v>
       </c>
+      <c r="E32" t="n">
+        <v>0.2731</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11782,6 +12264,9 @@
       <c r="D33" t="n">
         <v>32</v>
       </c>
+      <c r="E33" t="n">
+        <v>0.2656</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11802,6 +12287,9 @@
       <c r="D34" t="n">
         <v>33</v>
       </c>
+      <c r="E34" t="n">
+        <v>0.2581</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11822,6 +12310,9 @@
       <c r="D35" t="n">
         <v>34</v>
       </c>
+      <c r="E35" t="n">
+        <v>0.2567</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11842,6 +12333,9 @@
       <c r="D36" t="n">
         <v>35</v>
       </c>
+      <c r="E36" t="n">
+        <v>0.234</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11862,6 +12356,9 @@
       <c r="D37" t="n">
         <v>36</v>
       </c>
+      <c r="E37" t="n">
+        <v>0.2276</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11882,6 +12379,9 @@
       <c r="D38" t="n">
         <v>37</v>
       </c>
+      <c r="E38" t="n">
+        <v>0.2218</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11902,6 +12402,9 @@
       <c r="D39" t="n">
         <v>38</v>
       </c>
+      <c r="E39" t="n">
+        <v>0.2202</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11922,6 +12425,9 @@
       <c r="D40" t="n">
         <v>39</v>
       </c>
+      <c r="E40" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11942,6 +12448,9 @@
       <c r="D41" t="n">
         <v>40</v>
       </c>
+      <c r="E41" t="n">
+        <v>0.1983</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11961,6 +12470,9 @@
       </c>
       <c r="D42" t="n">
         <v>41</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1954</v>
       </c>
     </row>
   </sheetData>

--- a/results_tables/llm_benchmarks_all_results.xlsx
+++ b/results_tables/llm_benchmarks_all_results.xlsx
@@ -8551,17 +8551,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Mean Score</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>GPU Util Time</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Overall Rank</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mean Score</t>
         </is>
       </c>
     </row>
@@ -8576,16 +8576,16 @@
           <t>15h 45m</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0.6038</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>14h 8m</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.6038</v>
       </c>
     </row>
     <row r="3">
@@ -8599,16 +8599,16 @@
           <t>29h 45m</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>0.5961</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>17h 29m</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5961</v>
       </c>
     </row>
     <row r="4">
@@ -8622,16 +8622,16 @@
           <t>7h 51m</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>0.5871</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>6h 59m</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5871</v>
       </c>
     </row>
     <row r="5">
@@ -8645,16 +8645,16 @@
           <t>15h 31m</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>0.5859</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>13h 44m</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5859</v>
       </c>
     </row>
     <row r="6">
@@ -8668,16 +8668,16 @@
           <t>9h 36m</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>0.5788</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>8h 33m</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5788</v>
       </c>
     </row>
     <row r="7">
@@ -8691,16 +8691,16 @@
           <t>52h 44m</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>0.5775</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>29h 32m</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5775</v>
       </c>
     </row>
     <row r="8">
@@ -8714,16 +8714,16 @@
           <t>11h 43m</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>0.5676</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>10h 26m</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5676</v>
       </c>
     </row>
     <row r="9">
@@ -8737,16 +8737,16 @@
           <t>11h 17m</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>10h 10m</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5672</v>
       </c>
     </row>
     <row r="10">
@@ -8760,16 +8760,16 @@
           <t>12h 19m</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>0.5653</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>10h 52m</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5653</v>
       </c>
     </row>
     <row r="11">
@@ -8783,16 +8783,16 @@
           <t>13h 54m</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>12h 15m</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>10</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5621</v>
       </c>
     </row>
     <row r="12">
@@ -8806,16 +8806,16 @@
           <t>10h 46m</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>0.5576</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>9h 27m</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>11</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.5576</v>
       </c>
     </row>
     <row r="13">
@@ -8829,16 +8829,16 @@
           <t>6h 30m</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>0.5528</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>5h 46m</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>12</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5528</v>
       </c>
     </row>
     <row r="14">
@@ -8852,16 +8852,16 @@
           <t>5h 51m</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>5h 3m</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.551</v>
       </c>
     </row>
     <row r="15">
@@ -8875,16 +8875,16 @@
           <t>8h 27m</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>7h 28m</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.548</v>
       </c>
     </row>
     <row r="16">
@@ -8898,16 +8898,16 @@
           <t>8h 38m</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>0.5451</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>7h 41m</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>15</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5451</v>
       </c>
     </row>
     <row r="17">
@@ -8921,16 +8921,16 @@
           <t>4h 51m</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>0.5368000000000001</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>3h 50m</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>16</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.5368000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -8944,16 +8944,16 @@
           <t>8h 4m</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>0.5335</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>7h 1m</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>17</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5335</v>
       </c>
     </row>
     <row r="19">
@@ -8967,16 +8967,16 @@
           <t>4h 28m</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>0.5312</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>3h 54m</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>18</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.5312</v>
       </c>
     </row>
     <row r="20">
@@ -8990,16 +8990,16 @@
           <t>11h 30m</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>0.5271</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>10h 11m</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>19</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5271</v>
       </c>
     </row>
     <row r="21">
@@ -9013,16 +9013,16 @@
           <t>17h 57m</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>0.5219</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>15h 30m</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>20</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5219</v>
       </c>
     </row>
     <row r="22">
@@ -9036,16 +9036,16 @@
           <t>7h 12m</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>0.5048</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>5h 57m</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>21</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5048</v>
       </c>
     </row>
     <row r="23">
@@ -9059,16 +9059,16 @@
           <t>7h 48m</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>0.4939</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>6h 30m</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>22</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.4939</v>
       </c>
     </row>
     <row r="24">
@@ -9082,16 +9082,16 @@
           <t>27h 21m</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>0.4907</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>24h 38m</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>23</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.4907</v>
       </c>
     </row>
     <row r="25">
@@ -9105,16 +9105,16 @@
           <t>10h 6m</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>0.4869</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>9h 8m</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>24</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.4869</v>
       </c>
     </row>
     <row r="26">
@@ -9128,16 +9128,16 @@
           <t>11h 46m</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>10h 36m</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>25</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.483</v>
       </c>
     </row>
     <row r="27">
@@ -9151,16 +9151,16 @@
           <t>19h 21m</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>0.4819</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>17h 38m</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>26</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.4819</v>
       </c>
     </row>
     <row r="28">
@@ -9174,16 +9174,16 @@
           <t>17h 8m</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>0.4813</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>15h 37m</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>27</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.4813</v>
       </c>
     </row>
     <row r="29">
@@ -9197,16 +9197,16 @@
           <t>6h 28m</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>0.4644</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>5h 43m</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>28</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.4644</v>
       </c>
     </row>
     <row r="30">
@@ -9220,16 +9220,16 @@
           <t>3h 20m</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>0.4608</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>2h 36m</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>29</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.4608</v>
       </c>
     </row>
     <row r="31">
@@ -9243,16 +9243,16 @@
           <t>4h 25m</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>0.4597</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>3h 36m</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>30</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.4597</v>
       </c>
     </row>
     <row r="32">
@@ -9266,16 +9266,16 @@
           <t>5h 37m</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>0.4596</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>4h 57m</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>31</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.4596</v>
       </c>
     </row>
     <row r="33">
@@ -9289,16 +9289,16 @@
           <t>6h 57m</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>0.4525</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>6h 7m</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>32</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.4525</v>
       </c>
     </row>
     <row r="34">
@@ -9312,16 +9312,16 @@
           <t>5h 42m</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>0.4516</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>4h 59m</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>33</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.4516</v>
       </c>
     </row>
     <row r="35">
@@ -9335,16 +9335,16 @@
           <t>7h 11m</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>0.4451</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>6h 26m</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>34</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.4451</v>
       </c>
     </row>
     <row r="36">
@@ -9358,16 +9358,16 @@
           <t>8h 2m</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>0.4419</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>7h 12m</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>35</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.4419</v>
       </c>
     </row>
     <row r="37">
@@ -9381,16 +9381,16 @@
           <t>3h 30m</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>2h 35m</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>36</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.4219</v>
       </c>
     </row>
     <row r="38">
@@ -9404,16 +9404,16 @@
           <t>6h 50m</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>0.4013</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>4h 52m</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>37</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.4013</v>
       </c>
     </row>
     <row r="39">
@@ -9427,16 +9427,16 @@
           <t>3h 40m</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" t="n">
+        <v>0.3986</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>2h 52m</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>38</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.3986</v>
       </c>
     </row>
     <row r="40">
@@ -9450,16 +9450,16 @@
           <t>3h 25m</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>0.3838</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>2h 39m</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>39</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.3838</v>
       </c>
     </row>
     <row r="41">
@@ -9473,16 +9473,16 @@
           <t>3h 45m</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>0.3816</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>2h 53m</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>40</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.3816</v>
       </c>
     </row>
     <row r="42">
@@ -9496,16 +9496,16 @@
           <t>2h 34m</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>0.3799</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>1h 48m</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>41</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.3799</v>
       </c>
     </row>
   </sheetData>
@@ -9545,12 +9545,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Reasoning &amp; Math Mean Score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Reasoning &amp; Math Avg. Rank</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Reasoning &amp; Math Mean Score</t>
         </is>
       </c>
     </row>
@@ -9571,10 +9571,10 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>0.6266</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.6266</v>
       </c>
     </row>
     <row r="3">
@@ -9594,10 +9594,10 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>0.6214</v>
+      </c>
+      <c r="E3" t="n">
         <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.6214</v>
       </c>
     </row>
     <row r="4">
@@ -9617,10 +9617,10 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="E4" t="n">
         <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.586</v>
       </c>
     </row>
     <row r="5">
@@ -9640,10 +9640,10 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="E5" t="n">
         <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5712</v>
       </c>
     </row>
     <row r="6">
@@ -9663,10 +9663,10 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>0.5541</v>
+      </c>
+      <c r="E6" t="n">
         <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5541</v>
       </c>
     </row>
     <row r="7">
@@ -9686,10 +9686,10 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>0.5505</v>
+      </c>
+      <c r="E7" t="n">
         <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5505</v>
       </c>
     </row>
     <row r="8">
@@ -9709,10 +9709,10 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>0.5488</v>
+      </c>
+      <c r="E8" t="n">
         <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5488</v>
       </c>
     </row>
     <row r="9">
@@ -9732,10 +9732,10 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>0.5446</v>
+      </c>
+      <c r="E9" t="n">
         <v>8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5446</v>
       </c>
     </row>
     <row r="10">
@@ -9755,10 +9755,10 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>0.5399</v>
+      </c>
+      <c r="E10" t="n">
         <v>9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5399</v>
       </c>
     </row>
     <row r="11">
@@ -9778,10 +9778,10 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>0.5387</v>
+      </c>
+      <c r="E11" t="n">
         <v>10</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5387</v>
       </c>
     </row>
     <row r="12">
@@ -9801,10 +9801,10 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>0.5374</v>
+      </c>
+      <c r="E12" t="n">
         <v>11</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.5374</v>
       </c>
     </row>
     <row r="13">
@@ -9824,10 +9824,10 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>0.5366</v>
+      </c>
+      <c r="E13" t="n">
         <v>12</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5366</v>
       </c>
     </row>
     <row r="14">
@@ -9847,10 +9847,10 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>0.5286</v>
+      </c>
+      <c r="E14" t="n">
         <v>13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5286</v>
       </c>
     </row>
     <row r="15">
@@ -9870,10 +9870,10 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>0.5285</v>
+      </c>
+      <c r="E15" t="n">
         <v>14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.5285</v>
       </c>
     </row>
     <row r="16">
@@ -9893,10 +9893,10 @@
         </is>
       </c>
       <c r="D16" t="n">
+        <v>0.5245</v>
+      </c>
+      <c r="E16" t="n">
         <v>15</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5245</v>
       </c>
     </row>
     <row r="17">
@@ -9916,10 +9916,10 @@
         </is>
       </c>
       <c r="D17" t="n">
+        <v>0.5206</v>
+      </c>
+      <c r="E17" t="n">
         <v>16</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.5206</v>
       </c>
     </row>
     <row r="18">
@@ -9939,10 +9939,10 @@
         </is>
       </c>
       <c r="D18" t="n">
+        <v>0.5184</v>
+      </c>
+      <c r="E18" t="n">
         <v>17</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5184</v>
       </c>
     </row>
     <row r="19">
@@ -9962,10 +9962,10 @@
         </is>
       </c>
       <c r="D19" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="E19" t="n">
         <v>18</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.501</v>
       </c>
     </row>
     <row r="20">
@@ -9985,10 +9985,10 @@
         </is>
       </c>
       <c r="D20" t="n">
+        <v>0.5006</v>
+      </c>
+      <c r="E20" t="n">
         <v>19</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5006</v>
       </c>
     </row>
     <row r="21">
@@ -10008,10 +10008,10 @@
         </is>
       </c>
       <c r="D21" t="n">
+        <v>0.4997</v>
+      </c>
+      <c r="E21" t="n">
         <v>20</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.4997</v>
       </c>
     </row>
     <row r="22">
@@ -10031,10 +10031,10 @@
         </is>
       </c>
       <c r="D22" t="n">
+        <v>0.4841</v>
+      </c>
+      <c r="E22" t="n">
         <v>21</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.4841</v>
       </c>
     </row>
     <row r="23">
@@ -10054,10 +10054,10 @@
         </is>
       </c>
       <c r="D23" t="n">
+        <v>0.4704</v>
+      </c>
+      <c r="E23" t="n">
         <v>22</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.4704</v>
       </c>
     </row>
     <row r="24">
@@ -10077,10 +10077,10 @@
         </is>
       </c>
       <c r="D24" t="n">
+        <v>0.4688</v>
+      </c>
+      <c r="E24" t="n">
         <v>23</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.4688</v>
       </c>
     </row>
     <row r="25">
@@ -10100,10 +10100,10 @@
         </is>
       </c>
       <c r="D25" t="n">
+        <v>0.4495</v>
+      </c>
+      <c r="E25" t="n">
         <v>24</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.4495</v>
       </c>
     </row>
     <row r="26">
@@ -10123,10 +10123,10 @@
         </is>
       </c>
       <c r="D26" t="n">
+        <v>0.4493</v>
+      </c>
+      <c r="E26" t="n">
         <v>25</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.4493</v>
       </c>
     </row>
     <row r="27">
@@ -10146,10 +10146,10 @@
         </is>
       </c>
       <c r="D27" t="n">
+        <v>0.4469</v>
+      </c>
+      <c r="E27" t="n">
         <v>26</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.4469</v>
       </c>
     </row>
     <row r="28">
@@ -10169,10 +10169,10 @@
         </is>
       </c>
       <c r="D28" t="n">
+        <v>0.4244</v>
+      </c>
+      <c r="E28" t="n">
         <v>27</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.4244</v>
       </c>
     </row>
     <row r="29">
@@ -10192,10 +10192,10 @@
         </is>
       </c>
       <c r="D29" t="n">
+        <v>0.4143</v>
+      </c>
+      <c r="E29" t="n">
         <v>28</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.4143</v>
       </c>
     </row>
     <row r="30">
@@ -10215,10 +10215,10 @@
         </is>
       </c>
       <c r="D30" t="n">
+        <v>0.4085</v>
+      </c>
+      <c r="E30" t="n">
         <v>29</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.4085</v>
       </c>
     </row>
     <row r="31">
@@ -10238,10 +10238,10 @@
         </is>
       </c>
       <c r="D31" t="n">
+        <v>0.4009</v>
+      </c>
+      <c r="E31" t="n">
         <v>30</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.4009</v>
       </c>
     </row>
     <row r="32">
@@ -10261,10 +10261,10 @@
         </is>
       </c>
       <c r="D32" t="n">
+        <v>0.3874</v>
+      </c>
+      <c r="E32" t="n">
         <v>31</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.3874</v>
       </c>
     </row>
     <row r="33">
@@ -10284,10 +10284,10 @@
         </is>
       </c>
       <c r="D33" t="n">
+        <v>0.3823</v>
+      </c>
+      <c r="E33" t="n">
         <v>32</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.3823</v>
       </c>
     </row>
     <row r="34">
@@ -10307,10 +10307,10 @@
         </is>
       </c>
       <c r="D34" t="n">
+        <v>0.3719</v>
+      </c>
+      <c r="E34" t="n">
         <v>33</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.3719</v>
       </c>
     </row>
     <row r="35">
@@ -10330,10 +10330,10 @@
         </is>
       </c>
       <c r="D35" t="n">
+        <v>0.3702</v>
+      </c>
+      <c r="E35" t="n">
         <v>34</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.3702</v>
       </c>
     </row>
     <row r="36">
@@ -10353,10 +10353,10 @@
         </is>
       </c>
       <c r="D36" t="n">
+        <v>0.3674</v>
+      </c>
+      <c r="E36" t="n">
         <v>35</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.3674</v>
       </c>
     </row>
     <row r="37">
@@ -10376,10 +10376,10 @@
         </is>
       </c>
       <c r="D37" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="E37" t="n">
         <v>36</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.3494</v>
       </c>
     </row>
     <row r="38">
@@ -10399,10 +10399,10 @@
         </is>
       </c>
       <c r="D38" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E38" t="n">
         <v>37</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.345</v>
       </c>
     </row>
     <row r="39">
@@ -10422,10 +10422,10 @@
         </is>
       </c>
       <c r="D39" t="n">
+        <v>0.3377</v>
+      </c>
+      <c r="E39" t="n">
         <v>38</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.3377</v>
       </c>
     </row>
     <row r="40">
@@ -10445,10 +10445,10 @@
         </is>
       </c>
       <c r="D40" t="n">
+        <v>0.3361</v>
+      </c>
+      <c r="E40" t="n">
         <v>39</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.3361</v>
       </c>
     </row>
     <row r="41">
@@ -10468,10 +10468,10 @@
         </is>
       </c>
       <c r="D41" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="E41" t="n">
         <v>40</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.3312</v>
       </c>
     </row>
     <row r="42">
@@ -10491,10 +10491,10 @@
         </is>
       </c>
       <c r="D42" t="n">
+        <v>0.2914</v>
+      </c>
+      <c r="E42" t="n">
         <v>41</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.2914</v>
       </c>
     </row>
   </sheetData>
@@ -10534,12 +10534,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Commonsense &amp; NLI Mean Score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Commonsense &amp; NLI Avg. Rank</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Commonsense &amp; NLI Mean Score</t>
         </is>
       </c>
     </row>
@@ -10560,10 +10560,10 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>0.7941</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7941</v>
       </c>
     </row>
     <row r="3">
@@ -10583,10 +10583,10 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>0.7806999999999999</v>
+      </c>
+      <c r="E3" t="n">
         <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7806999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>0.7737000000000001</v>
+      </c>
+      <c r="E4" t="n">
         <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.7737000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -10629,10 +10629,10 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="E5" t="n">
         <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.773</v>
       </c>
     </row>
     <row r="6">
@@ -10652,10 +10652,10 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>0.7726</v>
+      </c>
+      <c r="E6" t="n">
         <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.7726</v>
       </c>
     </row>
     <row r="7">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>0.7691</v>
+      </c>
+      <c r="E7" t="n">
         <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.7691</v>
       </c>
     </row>
     <row r="8">
@@ -10698,10 +10698,10 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>0.7564</v>
+      </c>
+      <c r="E8" t="n">
         <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.7564</v>
       </c>
     </row>
     <row r="9">
@@ -10721,10 +10721,10 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>0.7468</v>
+      </c>
+      <c r="E9" t="n">
         <v>8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.7468</v>
       </c>
     </row>
     <row r="10">
@@ -10744,10 +10744,10 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>0.7403</v>
+      </c>
+      <c r="E10" t="n">
         <v>9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.7403</v>
       </c>
     </row>
     <row r="11">
@@ -10767,10 +10767,10 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>0.7374000000000001</v>
+      </c>
+      <c r="E11" t="n">
         <v>10</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.7374000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -10790,10 +10790,10 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>0.7367</v>
+      </c>
+      <c r="E12" t="n">
         <v>11</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.7367</v>
       </c>
     </row>
     <row r="13">
@@ -10813,10 +10813,10 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>0.7328</v>
+      </c>
+      <c r="E13" t="n">
         <v>12</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.7328</v>
       </c>
     </row>
     <row r="14">
@@ -10836,10 +10836,10 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>0.7284</v>
+      </c>
+      <c r="E14" t="n">
         <v>13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.7284</v>
       </c>
     </row>
     <row r="15">
@@ -10859,10 +10859,10 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>0.7274</v>
+      </c>
+      <c r="E15" t="n">
         <v>14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.7274</v>
       </c>
     </row>
     <row r="16">
@@ -10882,10 +10882,10 @@
         </is>
       </c>
       <c r="D16" t="n">
+        <v>0.7266</v>
+      </c>
+      <c r="E16" t="n">
         <v>15</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.7266</v>
       </c>
     </row>
     <row r="17">
@@ -10905,10 +10905,10 @@
         </is>
       </c>
       <c r="D17" t="n">
+        <v>0.7266</v>
+      </c>
+      <c r="E17" t="n">
         <v>16</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.7266</v>
       </c>
     </row>
     <row r="18">
@@ -10928,10 +10928,10 @@
         </is>
       </c>
       <c r="D18" t="n">
+        <v>0.7249</v>
+      </c>
+      <c r="E18" t="n">
         <v>17</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.7249</v>
       </c>
     </row>
     <row r="19">
@@ -10951,10 +10951,10 @@
         </is>
       </c>
       <c r="D19" t="n">
+        <v>0.7199</v>
+      </c>
+      <c r="E19" t="n">
         <v>18</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.7199</v>
       </c>
     </row>
     <row r="20">
@@ -10974,10 +10974,10 @@
         </is>
       </c>
       <c r="D20" t="n">
+        <v>0.7167</v>
+      </c>
+      <c r="E20" t="n">
         <v>19</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.7167</v>
       </c>
     </row>
     <row r="21">
@@ -10997,10 +10997,10 @@
         </is>
       </c>
       <c r="D21" t="n">
+        <v>0.7157</v>
+      </c>
+      <c r="E21" t="n">
         <v>20</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.7157</v>
       </c>
     </row>
     <row r="22">
@@ -11020,10 +11020,10 @@
         </is>
       </c>
       <c r="D22" t="n">
+        <v>0.7153</v>
+      </c>
+      <c r="E22" t="n">
         <v>21</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.7153</v>
       </c>
     </row>
     <row r="23">
@@ -11043,10 +11043,10 @@
         </is>
       </c>
       <c r="D23" t="n">
+        <v>0.7147</v>
+      </c>
+      <c r="E23" t="n">
         <v>22</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.7147</v>
       </c>
     </row>
     <row r="24">
@@ -11066,10 +11066,10 @@
         </is>
       </c>
       <c r="D24" t="n">
+        <v>0.7094</v>
+      </c>
+      <c r="E24" t="n">
         <v>23</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.7094</v>
       </c>
     </row>
     <row r="25">
@@ -11089,10 +11089,10 @@
         </is>
       </c>
       <c r="D25" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="E25" t="n">
         <v>24</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.709</v>
       </c>
     </row>
     <row r="26">
@@ -11112,10 +11112,10 @@
         </is>
       </c>
       <c r="D26" t="n">
+        <v>0.6978</v>
+      </c>
+      <c r="E26" t="n">
         <v>25</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.6978</v>
       </c>
     </row>
     <row r="27">
@@ -11135,10 +11135,10 @@
         </is>
       </c>
       <c r="D27" t="n">
+        <v>0.6956</v>
+      </c>
+      <c r="E27" t="n">
         <v>26</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.6956</v>
       </c>
     </row>
     <row r="28">
@@ -11158,10 +11158,10 @@
         </is>
       </c>
       <c r="D28" t="n">
+        <v>0.6928</v>
+      </c>
+      <c r="E28" t="n">
         <v>27</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.6928</v>
       </c>
     </row>
     <row r="29">
@@ -11181,10 +11181,10 @@
         </is>
       </c>
       <c r="D29" t="n">
+        <v>0.6886</v>
+      </c>
+      <c r="E29" t="n">
         <v>28</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.6886</v>
       </c>
     </row>
     <row r="30">
@@ -11204,10 +11204,10 @@
         </is>
       </c>
       <c r="D30" t="n">
+        <v>0.6803</v>
+      </c>
+      <c r="E30" t="n">
         <v>29</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.6803</v>
       </c>
     </row>
     <row r="31">
@@ -11227,10 +11227,10 @@
         </is>
       </c>
       <c r="D31" t="n">
+        <v>0.6788</v>
+      </c>
+      <c r="E31" t="n">
         <v>30</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.6788</v>
       </c>
     </row>
     <row r="32">
@@ -11250,10 +11250,10 @@
         </is>
       </c>
       <c r="D32" t="n">
+        <v>0.6711</v>
+      </c>
+      <c r="E32" t="n">
         <v>31</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.6711</v>
       </c>
     </row>
     <row r="33">
@@ -11273,10 +11273,10 @@
         </is>
       </c>
       <c r="D33" t="n">
+        <v>0.6587</v>
+      </c>
+      <c r="E33" t="n">
         <v>32</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.6587</v>
       </c>
     </row>
     <row r="34">
@@ -11296,10 +11296,10 @@
         </is>
       </c>
       <c r="D34" t="n">
+        <v>0.6442</v>
+      </c>
+      <c r="E34" t="n">
         <v>33</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.6442</v>
       </c>
     </row>
     <row r="35">
@@ -11319,10 +11319,10 @@
         </is>
       </c>
       <c r="D35" t="n">
+        <v>0.6422</v>
+      </c>
+      <c r="E35" t="n">
         <v>34</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.6422</v>
       </c>
     </row>
     <row r="36">
@@ -11342,10 +11342,10 @@
         </is>
       </c>
       <c r="D36" t="n">
+        <v>0.6267</v>
+      </c>
+      <c r="E36" t="n">
         <v>35</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.6267</v>
       </c>
     </row>
     <row r="37">
@@ -11365,10 +11365,10 @@
         </is>
       </c>
       <c r="D37" t="n">
+        <v>0.6264</v>
+      </c>
+      <c r="E37" t="n">
         <v>36</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.6264</v>
       </c>
     </row>
     <row r="38">
@@ -11388,10 +11388,10 @@
         </is>
       </c>
       <c r="D38" t="n">
+        <v>0.6183999999999999</v>
+      </c>
+      <c r="E38" t="n">
         <v>37</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.6183999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -11411,10 +11411,10 @@
         </is>
       </c>
       <c r="D39" t="n">
+        <v>0.6039</v>
+      </c>
+      <c r="E39" t="n">
         <v>38</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.6039</v>
       </c>
     </row>
     <row r="40">
@@ -11434,10 +11434,10 @@
         </is>
       </c>
       <c r="D40" t="n">
+        <v>0.5703</v>
+      </c>
+      <c r="E40" t="n">
         <v>39</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.5703</v>
       </c>
     </row>
     <row r="41">
@@ -11457,10 +11457,10 @@
         </is>
       </c>
       <c r="D41" t="n">
+        <v>0.5696</v>
+      </c>
+      <c r="E41" t="n">
         <v>40</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5696</v>
       </c>
     </row>
     <row r="42">
@@ -11480,10 +11480,10 @@
         </is>
       </c>
       <c r="D42" t="n">
+        <v>0.5181</v>
+      </c>
+      <c r="E42" t="n">
         <v>41</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.5181</v>
       </c>
     </row>
   </sheetData>
@@ -11523,12 +11523,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Knowledge &amp; Reading Mean Score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Knowledge &amp; Reading Avg. Rank</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Knowledge &amp; Reading Mean Score</t>
         </is>
       </c>
     </row>
@@ -11549,10 +11549,10 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>0.4369</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.4369</v>
       </c>
     </row>
     <row r="3">
@@ -11572,10 +11572,10 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="E3" t="n">
         <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.4136</v>
       </c>
     </row>
     <row r="4">
@@ -11595,10 +11595,10 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>0.4127</v>
+      </c>
+      <c r="E4" t="n">
         <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4127</v>
       </c>
     </row>
     <row r="5">
@@ -11618,10 +11618,10 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>0.4063</v>
+      </c>
+      <c r="E5" t="n">
         <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4063</v>
       </c>
     </row>
     <row r="6">
@@ -11641,10 +11641,10 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>0.4045</v>
+      </c>
+      <c r="E6" t="n">
         <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.4045</v>
       </c>
     </row>
     <row r="7">
@@ -11664,10 +11664,10 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>0.3963</v>
+      </c>
+      <c r="E7" t="n">
         <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3963</v>
       </c>
     </row>
     <row r="8">
@@ -11687,10 +11687,10 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>0.3926</v>
+      </c>
+      <c r="E8" t="n">
         <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3926</v>
       </c>
     </row>
     <row r="9">
@@ -11710,10 +11710,10 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>0.3923</v>
+      </c>
+      <c r="E9" t="n">
         <v>8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3923</v>
       </c>
     </row>
     <row r="10">
@@ -11733,10 +11733,10 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="E10" t="n">
         <v>9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.381</v>
       </c>
     </row>
     <row r="11">
@@ -11756,10 +11756,10 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>0.3791</v>
+      </c>
+      <c r="E11" t="n">
         <v>10</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.3791</v>
       </c>
     </row>
     <row r="12">
@@ -11779,10 +11779,10 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>0.3719</v>
+      </c>
+      <c r="E12" t="n">
         <v>11</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.3719</v>
       </c>
     </row>
     <row r="13">
@@ -11802,10 +11802,10 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>0.3683</v>
+      </c>
+      <c r="E13" t="n">
         <v>12</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.3683</v>
       </c>
     </row>
     <row r="14">
@@ -11825,10 +11825,10 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>0.3581</v>
+      </c>
+      <c r="E14" t="n">
         <v>13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.3581</v>
       </c>
     </row>
     <row r="15">
@@ -11848,10 +11848,10 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>0.3566</v>
+      </c>
+      <c r="E15" t="n">
         <v>14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.3566</v>
       </c>
     </row>
     <row r="16">
@@ -11871,10 +11871,10 @@
         </is>
       </c>
       <c r="D16" t="n">
+        <v>0.3467</v>
+      </c>
+      <c r="E16" t="n">
         <v>15</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.3467</v>
       </c>
     </row>
     <row r="17">
@@ -11894,10 +11894,10 @@
         </is>
       </c>
       <c r="D17" t="n">
+        <v>0.3438</v>
+      </c>
+      <c r="E17" t="n">
         <v>16</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.3438</v>
       </c>
     </row>
     <row r="18">
@@ -11917,10 +11917,10 @@
         </is>
       </c>
       <c r="D18" t="n">
+        <v>0.3406</v>
+      </c>
+      <c r="E18" t="n">
         <v>17</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.3406</v>
       </c>
     </row>
     <row r="19">
@@ -11940,10 +11940,10 @@
         </is>
       </c>
       <c r="D19" t="n">
+        <v>0.3374</v>
+      </c>
+      <c r="E19" t="n">
         <v>18</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.3374</v>
       </c>
     </row>
     <row r="20">
@@ -11963,10 +11963,10 @@
         </is>
       </c>
       <c r="D20" t="n">
+        <v>0.3339</v>
+      </c>
+      <c r="E20" t="n">
         <v>19</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.3339</v>
       </c>
     </row>
     <row r="21">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="D21" t="n">
+        <v>0.3261</v>
+      </c>
+      <c r="E21" t="n">
         <v>20</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.3261</v>
       </c>
     </row>
     <row r="22">
@@ -12009,10 +12009,10 @@
         </is>
       </c>
       <c r="D22" t="n">
+        <v>0.3226</v>
+      </c>
+      <c r="E22" t="n">
         <v>21</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.3226</v>
       </c>
     </row>
     <row r="23">
@@ -12032,10 +12032,10 @@
         </is>
       </c>
       <c r="D23" t="n">
+        <v>0.3018</v>
+      </c>
+      <c r="E23" t="n">
         <v>22</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.3018</v>
       </c>
     </row>
     <row r="24">
@@ -12055,10 +12055,10 @@
         </is>
       </c>
       <c r="D24" t="n">
+        <v>0.3007</v>
+      </c>
+      <c r="E24" t="n">
         <v>23</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.3007</v>
       </c>
     </row>
     <row r="25">
@@ -12078,10 +12078,10 @@
         </is>
       </c>
       <c r="D25" t="n">
+        <v>0.2919</v>
+      </c>
+      <c r="E25" t="n">
         <v>24</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.2919</v>
       </c>
     </row>
     <row r="26">
@@ -12101,10 +12101,10 @@
         </is>
       </c>
       <c r="D26" t="n">
+        <v>0.2903</v>
+      </c>
+      <c r="E26" t="n">
         <v>25</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.2903</v>
       </c>
     </row>
     <row r="27">
@@ -12124,10 +12124,10 @@
         </is>
       </c>
       <c r="D27" t="n">
+        <v>0.2864</v>
+      </c>
+      <c r="E27" t="n">
         <v>26</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.2864</v>
       </c>
     </row>
     <row r="28">
@@ -12147,10 +12147,10 @@
         </is>
       </c>
       <c r="D28" t="n">
+        <v>0.2864</v>
+      </c>
+      <c r="E28" t="n">
         <v>27</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.2864</v>
       </c>
     </row>
     <row r="29">
@@ -12170,10 +12170,10 @@
         </is>
       </c>
       <c r="D29" t="n">
+        <v>0.2834</v>
+      </c>
+      <c r="E29" t="n">
         <v>28</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.2834</v>
       </c>
     </row>
     <row r="30">
@@ -12193,10 +12193,10 @@
         </is>
       </c>
       <c r="D30" t="n">
+        <v>0.2827</v>
+      </c>
+      <c r="E30" t="n">
         <v>29</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.2827</v>
       </c>
     </row>
     <row r="31">
@@ -12216,10 +12216,10 @@
         </is>
       </c>
       <c r="D31" t="n">
+        <v>0.2805</v>
+      </c>
+      <c r="E31" t="n">
         <v>30</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.2805</v>
       </c>
     </row>
     <row r="32">
@@ -12239,10 +12239,10 @@
         </is>
       </c>
       <c r="D32" t="n">
+        <v>0.2731</v>
+      </c>
+      <c r="E32" t="n">
         <v>31</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.2731</v>
       </c>
     </row>
     <row r="33">
@@ -12262,10 +12262,10 @@
         </is>
       </c>
       <c r="D33" t="n">
+        <v>0.2656</v>
+      </c>
+      <c r="E33" t="n">
         <v>32</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.2656</v>
       </c>
     </row>
     <row r="34">
@@ -12285,10 +12285,10 @@
         </is>
       </c>
       <c r="D34" t="n">
+        <v>0.2581</v>
+      </c>
+      <c r="E34" t="n">
         <v>33</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.2581</v>
       </c>
     </row>
     <row r="35">
@@ -12308,10 +12308,10 @@
         </is>
       </c>
       <c r="D35" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="E35" t="n">
         <v>34</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.2567</v>
       </c>
     </row>
     <row r="36">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="D36" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="E36" t="n">
         <v>35</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.234</v>
       </c>
     </row>
     <row r="37">
@@ -12354,10 +12354,10 @@
         </is>
       </c>
       <c r="D37" t="n">
+        <v>0.2276</v>
+      </c>
+      <c r="E37" t="n">
         <v>36</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.2276</v>
       </c>
     </row>
     <row r="38">
@@ -12377,10 +12377,10 @@
         </is>
       </c>
       <c r="D38" t="n">
+        <v>0.2218</v>
+      </c>
+      <c r="E38" t="n">
         <v>37</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.2218</v>
       </c>
     </row>
     <row r="39">
@@ -12400,10 +12400,10 @@
         </is>
       </c>
       <c r="D39" t="n">
+        <v>0.2202</v>
+      </c>
+      <c r="E39" t="n">
         <v>38</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.2202</v>
       </c>
     </row>
     <row r="40">
@@ -12423,10 +12423,10 @@
         </is>
       </c>
       <c r="D40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E40" t="n">
         <v>39</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.2</v>
       </c>
     </row>
     <row r="41">
@@ -12446,10 +12446,10 @@
         </is>
       </c>
       <c r="D41" t="n">
+        <v>0.1983</v>
+      </c>
+      <c r="E41" t="n">
         <v>40</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.1983</v>
       </c>
     </row>
     <row r="42">
@@ -12469,10 +12469,10 @@
         </is>
       </c>
       <c r="D42" t="n">
+        <v>0.1954</v>
+      </c>
+      <c r="E42" t="n">
         <v>41</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.1954</v>
       </c>
     </row>
   </sheetData>

--- a/results_tables/llm_benchmarks_all_results.xlsx
+++ b/results_tables/llm_benchmarks_all_results.xlsx
@@ -8551,12 +8551,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>GPU Util Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mean Score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>GPU Util Time</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -8576,13 +8576,13 @@
           <t>15h 45m</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14h 8m</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0.6038</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14h 8m</t>
-        </is>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -8599,13 +8599,13 @@
           <t>29h 45m</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>17h 29m</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0.5961</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17h 29m</t>
-        </is>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -8622,13 +8622,13 @@
           <t>7h 51m</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6h 59m</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>0.5871</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6h 59m</t>
-        </is>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -8645,13 +8645,13 @@
           <t>15h 31m</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>13h 44m</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>0.5859</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13h 44m</t>
-        </is>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -8668,13 +8668,13 @@
           <t>9h 36m</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8h 33m</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>0.5788</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8h 33m</t>
-        </is>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -8691,13 +8691,13 @@
           <t>52h 44m</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>29h 32m</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0.5775</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>29h 32m</t>
-        </is>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -8714,13 +8714,13 @@
           <t>11h 43m</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10h 26m</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>0.5676</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10h 26m</t>
-        </is>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -8737,13 +8737,13 @@
           <t>11h 17m</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10h 10m</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>0.5672</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10h 10m</t>
-        </is>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -8760,13 +8760,13 @@
           <t>12h 19m</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10h 52m</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>0.5653</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10h 52m</t>
-        </is>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -8783,13 +8783,13 @@
           <t>13h 54m</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12h 15m</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>0.5621</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12h 15m</t>
-        </is>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -8806,13 +8806,13 @@
           <t>10h 46m</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9h 27m</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>0.5576</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9h 27m</t>
-        </is>
       </c>
       <c r="E12" t="n">
         <v>11</v>
@@ -8829,13 +8829,13 @@
           <t>6h 30m</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5h 46m</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>0.5528</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5h 46m</t>
-        </is>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -8852,13 +8852,13 @@
           <t>5h 51m</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5h 3m</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>0.551</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5h 3m</t>
-        </is>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -8875,13 +8875,13 @@
           <t>8h 27m</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7h 28m</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>0.548</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7h 28m</t>
-        </is>
       </c>
       <c r="E15" t="n">
         <v>14</v>
@@ -8898,13 +8898,13 @@
           <t>8h 38m</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7h 41m</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>0.5451</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7h 41m</t>
-        </is>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -8921,13 +8921,13 @@
           <t>4h 51m</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3h 50m</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>0.5368000000000001</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3h 50m</t>
-        </is>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -8944,13 +8944,13 @@
           <t>8h 4m</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7h 1m</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>0.5335</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7h 1m</t>
-        </is>
       </c>
       <c r="E18" t="n">
         <v>17</v>
@@ -8967,13 +8967,13 @@
           <t>4h 28m</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3h 54m</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>0.5312</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3h 54m</t>
-        </is>
       </c>
       <c r="E19" t="n">
         <v>18</v>
@@ -8990,13 +8990,13 @@
           <t>11h 30m</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10h 11m</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>0.5271</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>10h 11m</t>
-        </is>
       </c>
       <c r="E20" t="n">
         <v>19</v>
@@ -9013,13 +9013,13 @@
           <t>17h 57m</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15h 30m</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>0.5219</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>15h 30m</t>
-        </is>
       </c>
       <c r="E21" t="n">
         <v>20</v>
@@ -9036,13 +9036,13 @@
           <t>7h 12m</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5h 57m</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>0.5048</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5h 57m</t>
-        </is>
       </c>
       <c r="E22" t="n">
         <v>21</v>
@@ -9059,13 +9059,13 @@
           <t>7h 48m</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>6h 30m</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>0.4939</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6h 30m</t>
-        </is>
       </c>
       <c r="E23" t="n">
         <v>22</v>
@@ -9082,13 +9082,13 @@
           <t>27h 21m</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>24h 38m</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>0.4907</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>24h 38m</t>
-        </is>
       </c>
       <c r="E24" t="n">
         <v>23</v>
@@ -9105,13 +9105,13 @@
           <t>10h 6m</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>9h 8m</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>0.4869</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>9h 8m</t>
-        </is>
       </c>
       <c r="E25" t="n">
         <v>24</v>
@@ -9128,13 +9128,13 @@
           <t>11h 46m</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10h 36m</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>0.483</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>10h 36m</t>
-        </is>
       </c>
       <c r="E26" t="n">
         <v>25</v>
@@ -9151,13 +9151,13 @@
           <t>19h 21m</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17h 38m</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>0.4819</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>17h 38m</t>
-        </is>
       </c>
       <c r="E27" t="n">
         <v>26</v>
@@ -9174,13 +9174,13 @@
           <t>17h 8m</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>15h 37m</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
         <v>0.4813</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>15h 37m</t>
-        </is>
       </c>
       <c r="E28" t="n">
         <v>27</v>
@@ -9197,13 +9197,13 @@
           <t>6h 28m</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5h 43m</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>0.4644</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>5h 43m</t>
-        </is>
       </c>
       <c r="E29" t="n">
         <v>28</v>
@@ -9220,13 +9220,13 @@
           <t>3h 20m</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2h 36m</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>0.4608</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2h 36m</t>
-        </is>
       </c>
       <c r="E30" t="n">
         <v>29</v>
@@ -9243,13 +9243,13 @@
           <t>4h 25m</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3h 36m</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>0.4597</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3h 36m</t>
-        </is>
       </c>
       <c r="E31" t="n">
         <v>30</v>
@@ -9266,13 +9266,13 @@
           <t>5h 37m</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4h 57m</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
         <v>0.4596</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4h 57m</t>
-        </is>
       </c>
       <c r="E32" t="n">
         <v>31</v>
@@ -9289,13 +9289,13 @@
           <t>6h 57m</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>6h 7m</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>0.4525</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>6h 7m</t>
-        </is>
       </c>
       <c r="E33" t="n">
         <v>32</v>
@@ -9312,13 +9312,13 @@
           <t>5h 42m</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4h 59m</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
         <v>0.4516</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4h 59m</t>
-        </is>
       </c>
       <c r="E34" t="n">
         <v>33</v>
@@ -9335,13 +9335,13 @@
           <t>7h 11m</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>6h 26m</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>0.4451</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>6h 26m</t>
-        </is>
       </c>
       <c r="E35" t="n">
         <v>34</v>
@@ -9358,13 +9358,13 @@
           <t>8h 2m</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>7h 12m</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>0.4419</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>7h 12m</t>
-        </is>
       </c>
       <c r="E36" t="n">
         <v>35</v>
@@ -9381,13 +9381,13 @@
           <t>3h 30m</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2h 35m</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
         <v>0.4219</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2h 35m</t>
-        </is>
       </c>
       <c r="E37" t="n">
         <v>36</v>
@@ -9404,13 +9404,13 @@
           <t>6h 50m</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4h 52m</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
         <v>0.4013</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>4h 52m</t>
-        </is>
       </c>
       <c r="E38" t="n">
         <v>37</v>
@@ -9427,13 +9427,13 @@
           <t>3h 40m</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2h 52m</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
         <v>0.3986</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2h 52m</t>
-        </is>
       </c>
       <c r="E39" t="n">
         <v>38</v>
@@ -9450,13 +9450,13 @@
           <t>3h 25m</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2h 39m</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
         <v>0.3838</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2h 39m</t>
-        </is>
       </c>
       <c r="E40" t="n">
         <v>39</v>
@@ -9473,13 +9473,13 @@
           <t>3h 45m</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2h 53m</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
         <v>0.3816</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2h 53m</t>
-        </is>
       </c>
       <c r="E41" t="n">
         <v>40</v>
@@ -9496,13 +9496,13 @@
           <t>2h 34m</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1h 48m</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
         <v>0.3799</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1h 48m</t>
-        </is>
       </c>
       <c r="E42" t="n">
         <v>41</v>
